--- a/data/mall-cloud-alibaba/product-common_structure.xlsx
+++ b/data/mall-cloud-alibaba/product-common_structure.xlsx
@@ -1011,18 +1011,18 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
-    <t>private</t>
-  </si>
-  <si>
     <t>productId</t>
   </si>
   <si>
-    <t>value</t>
-  </si>
-  <si>
     <t>serialVersionUID</t>
   </si>
   <si>
@@ -1032,40 +1032,43 @@
     <t>productAttributeId</t>
   </si>
   <si>
+    <t>commentId</t>
+  </si>
+  <si>
     <t>type</t>
   </si>
   <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>memberIcon</t>
+  </si>
+  <si>
+    <t>memberNickName</t>
+  </si>
+  <si>
     <t>createTime</t>
   </si>
   <si>
-    <t>memberIcon</t>
-  </si>
-  <si>
-    <t>commentId</t>
-  </si>
-  <si>
-    <t>content</t>
-  </si>
-  <si>
-    <t>memberNickName</t>
-  </si>
-  <si>
     <t>productCategoryId</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>attributeCount</t>
   </si>
   <si>
     <t>paramCount</t>
   </si>
   <si>
-    <t>name</t>
+    <t>reducePrice</t>
   </si>
   <si>
     <t>fullPrice</t>
   </si>
   <si>
-    <t>reducePrice</t>
+    <t>salePriceNew</t>
   </si>
   <si>
     <t>priceNew</t>
@@ -1074,316 +1077,313 @@
     <t>usePointLimitNew</t>
   </si>
   <si>
-    <t>salePriceNew</t>
+    <t>giftPointOld</t>
+  </si>
+  <si>
+    <t>operateMan</t>
+  </si>
+  <si>
+    <t>priceOld</t>
   </si>
   <si>
     <t>giftPointNew</t>
   </si>
   <si>
+    <t>usePointLimitOld</t>
+  </si>
+  <si>
     <t>salePriceOld</t>
   </si>
   <si>
-    <t>priceOld</t>
-  </si>
-  <si>
-    <t>giftPointOld</t>
-  </si>
-  <si>
-    <t>operateMan</t>
-  </si>
-  <si>
-    <t>usePointLimitOld</t>
+    <t>skuStockList</t>
   </si>
   <si>
     <t>productAttributeList</t>
   </si>
   <si>
-    <t>skuStockList</t>
+    <t>chargeType</t>
+  </si>
+  <si>
+    <t>firstFee</t>
+  </si>
+  <si>
+    <t>continmeFee</t>
+  </si>
+  <si>
+    <t>firstWeight</t>
   </si>
   <si>
     <t>dest</t>
   </si>
   <si>
-    <t>firstWeight</t>
-  </si>
-  <si>
     <t>continueWeight</t>
   </si>
   <si>
-    <t>chargeType</t>
-  </si>
-  <si>
-    <t>firstFee</t>
-  </si>
-  <si>
-    <t>continmeFee</t>
+    <t>price</t>
+  </si>
+  <si>
+    <t>count</t>
   </si>
   <si>
     <t>discount</t>
   </si>
   <si>
-    <t>count</t>
-  </si>
-  <si>
-    <t>price</t>
+    <t>brandStory</t>
+  </si>
+  <si>
+    <t>productCount</t>
+  </si>
+  <si>
+    <t>sort</t>
+  </si>
+  <si>
+    <t>showStatus</t>
+  </si>
+  <si>
+    <t>bigPic</t>
+  </si>
+  <si>
+    <t>firstLetter</t>
+  </si>
+  <si>
+    <t>factoryStatus</t>
   </si>
   <si>
     <t>productCommentCount</t>
   </si>
   <si>
-    <t>factoryStatus</t>
-  </si>
-  <si>
     <t>logo</t>
   </si>
   <si>
-    <t>bigPic</t>
-  </si>
-  <si>
-    <t>firstLetter</t>
-  </si>
-  <si>
-    <t>sort</t>
-  </si>
-  <si>
-    <t>showStatus</t>
-  </si>
-  <si>
-    <t>productCount</t>
-  </si>
-  <si>
-    <t>brandStory</t>
+    <t>memberPrice</t>
+  </si>
+  <si>
+    <t>memberLevelId</t>
   </si>
   <si>
     <t>memberLevelName</t>
   </si>
   <si>
-    <t>memberPrice</t>
-  </si>
-  <si>
-    <t>memberLevelId</t>
+    <t>pic</t>
+  </si>
+  <si>
+    <t>subTitle</t>
+  </si>
+  <si>
+    <t>promotionPerLimit</t>
+  </si>
+  <si>
+    <t>sale</t>
+  </si>
+  <si>
+    <t>productSn</t>
+  </si>
+  <si>
+    <t>promotionStartTime</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>giftPoint</t>
+  </si>
+  <si>
+    <t>keywords</t>
   </si>
   <si>
     <t>productCategoryName</t>
   </si>
   <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>previewStatus</t>
+  </si>
+  <si>
+    <t>promotionType</t>
+  </si>
+  <si>
+    <t>recommandStatus</t>
+  </si>
+  <si>
+    <t>originalPrice</t>
+  </si>
+  <si>
+    <t>feightTemplateId</t>
+  </si>
+  <si>
+    <t>usePointLimit</t>
+  </si>
+  <si>
+    <t>promotionEndTime</t>
+  </si>
+  <si>
+    <t>giftGrowth</t>
+  </si>
+  <si>
+    <t>publishStatus</t>
+  </si>
+  <si>
+    <t>brandName</t>
+  </si>
+  <si>
+    <t>verifyStatus</t>
+  </si>
+  <si>
+    <t>detailTitle</t>
+  </si>
+  <si>
+    <t>detailMobileHtml</t>
+  </si>
+  <si>
+    <t>promotionPrice</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
     <t>description</t>
   </si>
   <si>
-    <t>promotionType</t>
-  </si>
-  <si>
-    <t>recommandStatus</t>
-  </si>
-  <si>
-    <t>giftPoint</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
     <t>brandId</t>
   </si>
   <si>
+    <t>productAttributeCategoryId</t>
+  </si>
+  <si>
     <t>deleteStatus</t>
   </si>
   <si>
+    <t>newStatus</t>
+  </si>
+  <si>
+    <t>detailDesc</t>
+  </si>
+  <si>
+    <t>detailHtml</t>
+  </si>
+  <si>
+    <t>albumPics</t>
+  </si>
+  <si>
+    <t>lowStock</t>
+  </si>
+  <si>
     <t>serviceIds</t>
   </si>
   <si>
-    <t>pic</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t>brandName</t>
-  </si>
-  <si>
-    <t>publishStatus</t>
-  </si>
-  <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>productAttributeCategoryId</t>
-  </si>
-  <si>
-    <t>weight</t>
-  </si>
-  <si>
-    <t>productSn</t>
-  </si>
-  <si>
-    <t>newStatus</t>
-  </si>
-  <si>
-    <t>usePointLimit</t>
-  </si>
-  <si>
-    <t>promotionStartTime</t>
-  </si>
-  <si>
-    <t>originalPrice</t>
-  </si>
-  <si>
-    <t>previewStatus</t>
-  </si>
-  <si>
-    <t>giftGrowth</t>
-  </si>
-  <si>
-    <t>keywords</t>
-  </si>
-  <si>
-    <t>lowStock</t>
-  </si>
-  <si>
-    <t>verifyStatus</t>
-  </si>
-  <si>
-    <t>sale</t>
-  </si>
-  <si>
-    <t>promotionPerLimit</t>
-  </si>
-  <si>
-    <t>detailHtml</t>
-  </si>
-  <si>
-    <t>detailMobileHtml</t>
-  </si>
-  <si>
-    <t>feightTemplateId</t>
-  </si>
-  <si>
-    <t>promotionPrice</t>
-  </si>
-  <si>
-    <t>detailTitle</t>
-  </si>
-  <si>
-    <t>albumPics</t>
-  </si>
-  <si>
-    <t>subTitle</t>
-  </si>
-  <si>
-    <t>promotionEndTime</t>
-  </si>
-  <si>
-    <t>detailDesc</t>
+    <t>lockStock</t>
   </si>
   <si>
     <t>spData</t>
   </si>
   <si>
-    <t>lockStock</t>
-  </si>
-  <si>
     <t>skuCode</t>
   </si>
   <si>
+    <t>inputList</t>
+  </si>
+  <si>
+    <t>filterType</t>
+  </si>
+  <si>
+    <t>handAddStatus</t>
+  </si>
+  <si>
+    <t>relatedStatus</t>
+  </si>
+  <si>
+    <t>selectType</t>
+  </si>
+  <si>
     <t>searchType</t>
   </si>
   <si>
-    <t>inputList</t>
-  </si>
-  <si>
-    <t>handAddStatus</t>
-  </si>
-  <si>
-    <t>filterType</t>
-  </si>
-  <si>
-    <t>selectType</t>
-  </si>
-  <si>
     <t>inputType</t>
   </si>
   <si>
-    <t>relatedStatus</t>
+    <t>status</t>
+  </si>
+  <si>
+    <t>vertifyMan</t>
   </si>
   <si>
     <t>detail</t>
   </si>
   <si>
-    <t>vertifyMan</t>
-  </si>
-  <si>
-    <t>status</t>
+    <t>parentId</t>
+  </si>
+  <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>productUnit</t>
   </si>
   <si>
     <t>navStatus</t>
   </si>
   <si>
-    <t>icon</t>
-  </si>
-  <si>
-    <t>productUnit</t>
-  </si>
-  <si>
     <t>level</t>
   </si>
   <si>
-    <t>parentId</t>
+    <t>productName</t>
+  </si>
+  <si>
+    <t>star</t>
   </si>
   <si>
     <t>memberIp</t>
   </si>
   <si>
+    <t>readCount</t>
+  </si>
+  <si>
+    <t>replayCount</t>
+  </si>
+  <si>
+    <t>collectCouont</t>
+  </si>
+  <si>
+    <t>pics</t>
+  </si>
+  <si>
     <t>productAttribute</t>
   </si>
   <si>
-    <t>collectCouont</t>
-  </si>
-  <si>
-    <t>productName</t>
-  </si>
-  <si>
-    <t>star</t>
-  </si>
-  <si>
-    <t>pics</t>
-  </si>
-  <si>
-    <t>replayCount</t>
-  </si>
-  <si>
-    <t>readCount</t>
+    <t>coverPic</t>
   </si>
   <si>
     <t>picCount</t>
   </si>
   <si>
-    <t>coverPic</t>
+    <t>productFullReductionList</t>
   </si>
   <si>
     <t>productLadderList</t>
   </si>
   <si>
-    <t>productFullReductionList</t>
-  </si>
-  <si>
     <t>commentCount</t>
   </si>
   <si>
     <t>categoryId</t>
   </si>
   <si>
+    <t>categoryName</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>collectCount</t>
+  </si>
+  <si>
+    <t>recommendStatus</t>
+  </si>
+  <si>
     <t>forwardCount</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>categoryName</t>
-  </si>
-  <si>
-    <t>recommendStatus</t>
-  </si>
-  <si>
-    <t>collectCount</t>
   </si>
   <si>
     <t>albumId</t>
@@ -18112,7 +18112,7 @@
         <v>330</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
@@ -18140,7 +18140,7 @@
         <v>330</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
@@ -18176,13 +18176,13 @@
         <v>34</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>334</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
@@ -18190,13 +18190,13 @@
         <v>34</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
@@ -18204,13 +18204,13 @@
         <v>34</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>40</v>
+        <v>334</v>
       </c>
     </row>
     <row r="10">
@@ -18218,13 +18218,13 @@
         <v>34</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>48</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
@@ -18252,7 +18252,7 @@
         <v>330</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -18280,7 +18280,7 @@
         <v>330</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>13</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15">
@@ -18288,13 +18288,13 @@
         <v>50</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>17</v>
+        <v>334</v>
       </c>
     </row>
     <row r="16">
@@ -18316,13 +18316,13 @@
         <v>50</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>334</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18">
@@ -18330,7 +18330,7 @@
         <v>50</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>330</v>
@@ -18350,7 +18350,7 @@
         <v>330</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
@@ -18358,13 +18358,13 @@
         <v>54</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>40</v>
+        <v>334</v>
       </c>
     </row>
     <row r="21">
@@ -18372,13 +18372,13 @@
         <v>54</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>334</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22">
@@ -18386,13 +18386,13 @@
         <v>54</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23">
@@ -18400,13 +18400,13 @@
         <v>54</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24">
@@ -18414,7 +18414,7 @@
         <v>62</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>330</v>
@@ -18442,13 +18442,13 @@
         <v>62</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>65</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27">
@@ -18456,13 +18456,13 @@
         <v>62</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>17</v>
+        <v>334</v>
       </c>
     </row>
     <row r="28">
@@ -18470,13 +18470,13 @@
         <v>62</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>334</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29">
@@ -18484,13 +18484,13 @@
         <v>69</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>334</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30">
@@ -18512,7 +18512,7 @@
         <v>69</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>330</v>
@@ -18532,7 +18532,7 @@
         <v>330</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33">
@@ -18546,7 +18546,7 @@
         <v>330</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>65</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34">
@@ -18554,13 +18554,13 @@
         <v>69</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35">
@@ -18568,13 +18568,13 @@
         <v>69</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36">
@@ -18588,7 +18588,7 @@
         <v>330</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>65</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37">
@@ -18610,13 +18610,13 @@
         <v>69</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>331</v>
+        <v>354</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39">
@@ -18624,7 +18624,7 @@
         <v>69</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>330</v>
@@ -18638,13 +18638,13 @@
         <v>69</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>355</v>
+        <v>333</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>13</v>
+        <v>334</v>
       </c>
     </row>
     <row r="41">
@@ -18658,7 +18658,7 @@
         <v>330</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42">
@@ -18700,7 +18700,7 @@
         <v>330</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45">
@@ -18722,13 +18722,13 @@
         <v>181</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>65</v>
+        <v>334</v>
       </c>
     </row>
     <row r="47">
@@ -18736,13 +18736,13 @@
         <v>181</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48">
@@ -18750,7 +18750,7 @@
         <v>181</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>330</v>
@@ -18764,13 +18764,13 @@
         <v>181</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>333</v>
+        <v>363</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>334</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50">
@@ -18778,7 +18778,7 @@
         <v>181</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>330</v>
@@ -18792,13 +18792,13 @@
         <v>181</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>364</v>
+        <v>343</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>65</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52">
@@ -18806,13 +18806,13 @@
         <v>181</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>345</v>
+        <v>364</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>13</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53">
@@ -18820,13 +18820,13 @@
         <v>195</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>333</v>
+        <v>365</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>334</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54">
@@ -18834,13 +18834,13 @@
         <v>195</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>365</v>
+        <v>332</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>65</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55">
@@ -18848,13 +18848,13 @@
         <v>195</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56">
@@ -18862,7 +18862,7 @@
         <v>195</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>330</v>
@@ -18876,13 +18876,13 @@
         <v>195</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58">
@@ -18890,13 +18890,13 @@
         <v>195</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>367</v>
+        <v>333</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>65</v>
+        <v>334</v>
       </c>
     </row>
     <row r="59">
@@ -18910,7 +18910,7 @@
         <v>330</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60">
@@ -18918,13 +18918,13 @@
         <v>201</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>329</v>
+        <v>369</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61">
@@ -18932,13 +18932,13 @@
         <v>201</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>345</v>
+        <v>370</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62">
@@ -18946,7 +18946,7 @@
         <v>201</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>330</v>
@@ -18960,7 +18960,7 @@
         <v>201</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>330</v>
@@ -18974,13 +18974,13 @@
         <v>201</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>371</v>
+        <v>331</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65">
@@ -18988,13 +18988,13 @@
         <v>201</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D65" t="s" s="0">
-        <v>334</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66">
@@ -19002,13 +19002,13 @@
         <v>201</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>372</v>
+        <v>333</v>
       </c>
       <c r="C66" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D66" t="s" s="0">
-        <v>13</v>
+        <v>334</v>
       </c>
     </row>
     <row r="67">
@@ -19022,7 +19022,7 @@
         <v>330</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68">
@@ -19072,13 +19072,13 @@
         <v>219</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D71" t="s" s="0">
-        <v>17</v>
+        <v>334</v>
       </c>
     </row>
     <row r="72">
@@ -19086,13 +19086,13 @@
         <v>219</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>329</v>
+        <v>377</v>
       </c>
       <c r="C72" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>17</v>
+        <v>65</v>
       </c>
     </row>
     <row r="73">
@@ -19100,13 +19100,13 @@
         <v>219</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C73" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D73" t="s" s="0">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74">
@@ -19114,13 +19114,13 @@
         <v>219</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>378</v>
+        <v>332</v>
       </c>
       <c r="C74" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D74" t="s" s="0">
-        <v>65</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75">
@@ -19128,7 +19128,7 @@
         <v>219</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>379</v>
+        <v>331</v>
       </c>
       <c r="C75" t="s" s="0">
         <v>330</v>
@@ -19142,13 +19142,13 @@
         <v>219</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>333</v>
+        <v>379</v>
       </c>
       <c r="C76" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D76" t="s" s="0">
-        <v>334</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77">
@@ -19170,7 +19170,7 @@
         <v>227</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>381</v>
+        <v>343</v>
       </c>
       <c r="C78" t="s" s="0">
         <v>330</v>
@@ -19184,13 +19184,13 @@
         <v>227</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C79" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D79" t="s" s="0">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80">
@@ -19198,13 +19198,13 @@
         <v>227</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>383</v>
+        <v>333</v>
       </c>
       <c r="C80" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D80" t="s" s="0">
-        <v>40</v>
+        <v>334</v>
       </c>
     </row>
     <row r="81">
@@ -19212,7 +19212,7 @@
         <v>227</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="C81" t="s" s="0">
         <v>330</v>
@@ -19226,7 +19226,7 @@
         <v>227</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C82" t="s" s="0">
         <v>330</v>
@@ -19240,13 +19240,13 @@
         <v>227</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C83" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D83" t="s" s="0">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84">
@@ -19254,13 +19254,13 @@
         <v>227</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="C84" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D84" t="s" s="0">
-        <v>65</v>
+        <v>48</v>
       </c>
     </row>
     <row r="85">
@@ -19274,7 +19274,7 @@
         <v>330</v>
       </c>
       <c r="D85" t="s" s="0">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86">
@@ -19288,7 +19288,7 @@
         <v>330</v>
       </c>
       <c r="D86" t="s" s="0">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="87">
@@ -19302,7 +19302,7 @@
         <v>330</v>
       </c>
       <c r="D87" t="s" s="0">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="88">
@@ -19310,13 +19310,13 @@
         <v>227</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>389</v>
+        <v>342</v>
       </c>
       <c r="C88" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D88" t="s" s="0">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89">
@@ -19324,7 +19324,7 @@
         <v>227</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C89" t="s" s="0">
         <v>330</v>
@@ -19338,7 +19338,7 @@
         <v>227</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C90" t="s" s="0">
         <v>330</v>
@@ -19352,13 +19352,13 @@
         <v>227</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>329</v>
+        <v>391</v>
       </c>
       <c r="C91" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D91" t="s" s="0">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92">
@@ -19386,7 +19386,7 @@
         <v>330</v>
       </c>
       <c r="D93" t="s" s="0">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="94">
@@ -19400,7 +19400,7 @@
         <v>330</v>
       </c>
       <c r="D94" t="s" s="0">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="95">
@@ -19422,13 +19422,13 @@
         <v>227</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>345</v>
+        <v>396</v>
       </c>
       <c r="C96" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D96" t="s" s="0">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97">
@@ -19436,13 +19436,13 @@
         <v>227</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C97" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D97" t="s" s="0">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="98">
@@ -19450,13 +19450,13 @@
         <v>227</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>333</v>
+        <v>398</v>
       </c>
       <c r="C98" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D98" t="s" s="0">
-        <v>334</v>
+        <v>48</v>
       </c>
     </row>
     <row r="99">
@@ -19464,7 +19464,7 @@
         <v>227</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C99" t="s" s="0">
         <v>330</v>
@@ -19478,13 +19478,13 @@
         <v>227</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>342</v>
+        <v>400</v>
       </c>
       <c r="C100" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D100" t="s" s="0">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="101">
@@ -19492,13 +19492,13 @@
         <v>227</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C101" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D101" t="s" s="0">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="102">
@@ -19506,13 +19506,13 @@
         <v>227</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C102" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D102" t="s" s="0">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="103">
@@ -19520,13 +19520,13 @@
         <v>227</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C103" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D103" t="s" s="0">
-        <v>65</v>
+        <v>13</v>
       </c>
     </row>
     <row r="104">
@@ -19534,13 +19534,13 @@
         <v>227</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>401</v>
+        <v>365</v>
       </c>
       <c r="C104" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D104" t="s" s="0">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="105">
@@ -19548,7 +19548,7 @@
         <v>227</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>402</v>
+        <v>370</v>
       </c>
       <c r="C105" t="s" s="0">
         <v>330</v>
@@ -19562,7 +19562,7 @@
         <v>227</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C106" t="s" s="0">
         <v>330</v>
@@ -19576,13 +19576,13 @@
         <v>227</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C107" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D107" t="s" s="0">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="108">
@@ -19590,7 +19590,7 @@
         <v>227</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C108" t="s" s="0">
         <v>330</v>
@@ -19604,13 +19604,13 @@
         <v>227</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C109" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D109" t="s" s="0">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="110">
@@ -19618,13 +19618,13 @@
         <v>227</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C110" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D110" t="s" s="0">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="111">
@@ -19632,13 +19632,13 @@
         <v>227</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C111" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D111" t="s" s="0">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="112">
@@ -19646,13 +19646,13 @@
         <v>227</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C112" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D112" t="s" s="0">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="113">
@@ -19660,13 +19660,13 @@
         <v>227</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C113" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D113" t="s" s="0">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="114">
@@ -19674,13 +19674,13 @@
         <v>227</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C114" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D114" t="s" s="0">
-        <v>65</v>
+        <v>13</v>
       </c>
     </row>
     <row r="115">
@@ -19688,7 +19688,7 @@
         <v>227</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C115" t="s" s="0">
         <v>330</v>
@@ -19702,7 +19702,7 @@
         <v>227</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C116" t="s" s="0">
         <v>330</v>
@@ -19716,13 +19716,13 @@
         <v>227</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>414</v>
+        <v>331</v>
       </c>
       <c r="C117" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D117" t="s" s="0">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="118">
@@ -19736,7 +19736,7 @@
         <v>330</v>
       </c>
       <c r="D118" t="s" s="0">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="119">
@@ -19758,13 +19758,13 @@
         <v>229</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>329</v>
+        <v>405</v>
       </c>
       <c r="C120" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D120" t="s" s="0">
-        <v>17</v>
+        <v>65</v>
       </c>
     </row>
     <row r="121">
@@ -19772,13 +19772,13 @@
         <v>229</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>385</v>
+        <v>365</v>
       </c>
       <c r="C121" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D121" t="s" s="0">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="122">
@@ -19786,7 +19786,7 @@
         <v>229</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="C122" t="s" s="0">
         <v>330</v>
@@ -19814,7 +19814,7 @@
         <v>229</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="C124" t="s" s="0">
         <v>330</v>
@@ -19828,13 +19828,13 @@
         <v>229</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C125" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D125" t="s" s="0">
-        <v>65</v>
+        <v>40</v>
       </c>
     </row>
     <row r="126">
@@ -19842,13 +19842,13 @@
         <v>229</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>417</v>
+        <v>383</v>
       </c>
       <c r="C126" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D126" t="s" s="0">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="127">
@@ -19870,7 +19870,7 @@
         <v>229</v>
       </c>
       <c r="B128" t="s" s="0">
-        <v>389</v>
+        <v>418</v>
       </c>
       <c r="C128" t="s" s="0">
         <v>330</v>
@@ -19884,13 +19884,13 @@
         <v>229</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>367</v>
+        <v>419</v>
       </c>
       <c r="C129" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D129" t="s" s="0">
-        <v>65</v>
+        <v>13</v>
       </c>
     </row>
     <row r="130">
@@ -19898,13 +19898,13 @@
         <v>229</v>
       </c>
       <c r="B130" t="s" s="0">
-        <v>418</v>
+        <v>332</v>
       </c>
       <c r="C130" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D130" t="s" s="0">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="131">
@@ -19912,7 +19912,7 @@
         <v>229</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>419</v>
+        <v>380</v>
       </c>
       <c r="C131" t="s" s="0">
         <v>330</v>
@@ -19932,7 +19932,7 @@
         <v>330</v>
       </c>
       <c r="D132" t="s" s="0">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="133">
@@ -19946,7 +19946,7 @@
         <v>330</v>
       </c>
       <c r="D133" t="s" s="0">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="134">
@@ -19968,7 +19968,7 @@
         <v>237</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C135" t="s" s="0">
         <v>330</v>
@@ -19982,13 +19982,13 @@
         <v>237</v>
       </c>
       <c r="B136" t="s" s="0">
-        <v>333</v>
+        <v>423</v>
       </c>
       <c r="C136" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D136" t="s" s="0">
-        <v>334</v>
+        <v>40</v>
       </c>
     </row>
     <row r="137">
@@ -19996,13 +19996,13 @@
         <v>237</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="C137" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D137" t="s" s="0">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="138">
@@ -20010,7 +20010,7 @@
         <v>237</v>
       </c>
       <c r="B138" t="s" s="0">
-        <v>394</v>
+        <v>331</v>
       </c>
       <c r="C138" t="s" s="0">
         <v>330</v>
@@ -20024,13 +20024,13 @@
         <v>237</v>
       </c>
       <c r="B139" t="s" s="0">
-        <v>424</v>
+        <v>343</v>
       </c>
       <c r="C139" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D139" t="s" s="0">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="140">
@@ -20038,7 +20038,7 @@
         <v>237</v>
       </c>
       <c r="B140" t="s" s="0">
-        <v>373</v>
+        <v>424</v>
       </c>
       <c r="C140" t="s" s="0">
         <v>330</v>
@@ -20052,7 +20052,7 @@
         <v>237</v>
       </c>
       <c r="B141" t="s" s="0">
-        <v>425</v>
+        <v>370</v>
       </c>
       <c r="C141" t="s" s="0">
         <v>330</v>
@@ -20066,13 +20066,13 @@
         <v>237</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>329</v>
+        <v>425</v>
       </c>
       <c r="C142" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D142" t="s" s="0">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="143">
@@ -20094,13 +20094,13 @@
         <v>237</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="C144" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D144" t="s" s="0">
-        <v>13</v>
+        <v>334</v>
       </c>
     </row>
     <row r="145">
@@ -20114,7 +20114,7 @@
         <v>330</v>
       </c>
       <c r="D145" t="s" s="0">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="146">
@@ -20122,13 +20122,13 @@
         <v>253</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>337</v>
+        <v>428</v>
       </c>
       <c r="C146" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D146" t="s" s="0">
-        <v>48</v>
+        <v>13</v>
       </c>
     </row>
     <row r="147">
@@ -20136,13 +20136,13 @@
         <v>253</v>
       </c>
       <c r="B147" t="s" s="0">
-        <v>331</v>
+        <v>429</v>
       </c>
       <c r="C147" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D147" t="s" s="0">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="148">
@@ -20150,13 +20150,13 @@
         <v>253</v>
       </c>
       <c r="B148" t="s" s="0">
-        <v>428</v>
+        <v>333</v>
       </c>
       <c r="C148" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D148" t="s" s="0">
-        <v>13</v>
+        <v>334</v>
       </c>
     </row>
     <row r="149">
@@ -20164,13 +20164,13 @@
         <v>253</v>
       </c>
       <c r="B149" t="s" s="0">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C149" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D149" t="s" s="0">
-        <v>334</v>
+        <v>17</v>
       </c>
     </row>
     <row r="150">
@@ -20178,7 +20178,7 @@
         <v>253</v>
       </c>
       <c r="B150" t="s" s="0">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C150" t="s" s="0">
         <v>330</v>
@@ -20192,13 +20192,13 @@
         <v>253</v>
       </c>
       <c r="B151" t="s" s="0">
-        <v>429</v>
+        <v>341</v>
       </c>
       <c r="C151" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D151" t="s" s="0">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="152">
@@ -20206,7 +20206,7 @@
         <v>261</v>
       </c>
       <c r="B152" t="s" s="0">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C152" t="s" s="0">
         <v>330</v>
@@ -20220,7 +20220,7 @@
         <v>261</v>
       </c>
       <c r="B153" t="s" s="0">
-        <v>430</v>
+        <v>369</v>
       </c>
       <c r="C153" t="s" s="0">
         <v>330</v>
@@ -20234,13 +20234,13 @@
         <v>261</v>
       </c>
       <c r="B154" t="s" s="0">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C154" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D154" t="s" s="0">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="155">
@@ -20248,13 +20248,13 @@
         <v>261</v>
       </c>
       <c r="B155" t="s" s="0">
-        <v>329</v>
+        <v>371</v>
       </c>
       <c r="C155" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D155" t="s" s="0">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="156">
@@ -20262,7 +20262,7 @@
         <v>261</v>
       </c>
       <c r="B156" t="s" s="0">
-        <v>432</v>
+        <v>343</v>
       </c>
       <c r="C156" t="s" s="0">
         <v>330</v>
@@ -20276,13 +20276,13 @@
         <v>261</v>
       </c>
       <c r="B157" t="s" s="0">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="C157" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D157" t="s" s="0">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="158">
@@ -20290,13 +20290,13 @@
         <v>261</v>
       </c>
       <c r="B158" t="s" s="0">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="C158" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D158" t="s" s="0">
-        <v>334</v>
+        <v>40</v>
       </c>
     </row>
     <row r="159">
@@ -20304,13 +20304,13 @@
         <v>261</v>
       </c>
       <c r="B159" t="s" s="0">
-        <v>374</v>
+        <v>431</v>
       </c>
       <c r="C159" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D159" t="s" s="0">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="160">
@@ -20318,13 +20318,13 @@
         <v>261</v>
       </c>
       <c r="B160" t="s" s="0">
-        <v>433</v>
+        <v>331</v>
       </c>
       <c r="C160" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D160" t="s" s="0">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="161">
@@ -20332,7 +20332,7 @@
         <v>261</v>
       </c>
       <c r="B161" t="s" s="0">
-        <v>345</v>
+        <v>432</v>
       </c>
       <c r="C161" t="s" s="0">
         <v>330</v>
@@ -20346,13 +20346,13 @@
         <v>261</v>
       </c>
       <c r="B162" t="s" s="0">
-        <v>375</v>
+        <v>333</v>
       </c>
       <c r="C162" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D162" t="s" s="0">
-        <v>40</v>
+        <v>334</v>
       </c>
     </row>
     <row r="163">
@@ -20360,13 +20360,13 @@
         <v>261</v>
       </c>
       <c r="B163" t="s" s="0">
-        <v>381</v>
+        <v>433</v>
       </c>
       <c r="C163" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D163" t="s" s="0">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="164">
@@ -20380,7 +20380,7 @@
         <v>330</v>
       </c>
       <c r="D164" t="s" s="0">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="165">
@@ -20402,13 +20402,13 @@
         <v>273</v>
       </c>
       <c r="B166" t="s" s="0">
-        <v>436</v>
+        <v>331</v>
       </c>
       <c r="C166" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D166" t="s" s="0">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="167">
@@ -20416,13 +20416,13 @@
         <v>273</v>
       </c>
       <c r="B167" t="s" s="0">
-        <v>437</v>
+        <v>338</v>
       </c>
       <c r="C167" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D167" t="s" s="0">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="168">
@@ -20430,13 +20430,13 @@
         <v>273</v>
       </c>
       <c r="B168" t="s" s="0">
-        <v>338</v>
+        <v>436</v>
       </c>
       <c r="C168" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D168" t="s" s="0">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="169">
@@ -20444,7 +20444,7 @@
         <v>273</v>
       </c>
       <c r="B169" t="s" s="0">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C169" t="s" s="0">
         <v>330</v>
@@ -20458,13 +20458,13 @@
         <v>273</v>
       </c>
       <c r="B170" t="s" s="0">
-        <v>439</v>
+        <v>332</v>
       </c>
       <c r="C170" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D170" t="s" s="0">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="171">
@@ -20472,13 +20472,13 @@
         <v>273</v>
       </c>
       <c r="B171" t="s" s="0">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="C171" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D171" t="s" s="0">
-        <v>334</v>
+        <v>48</v>
       </c>
     </row>
     <row r="172">
@@ -20486,13 +20486,13 @@
         <v>273</v>
       </c>
       <c r="B172" t="s" s="0">
-        <v>329</v>
+        <v>371</v>
       </c>
       <c r="C172" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D172" t="s" s="0">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="173">
@@ -20500,13 +20500,13 @@
         <v>273</v>
       </c>
       <c r="B173" t="s" s="0">
-        <v>341</v>
+        <v>438</v>
       </c>
       <c r="C173" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D173" t="s" s="0">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="174">
@@ -20514,13 +20514,13 @@
         <v>273</v>
       </c>
       <c r="B174" t="s" s="0">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C174" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D174" t="s" s="0">
-        <v>48</v>
+        <v>334</v>
       </c>
     </row>
     <row r="175">
@@ -20528,7 +20528,7 @@
         <v>273</v>
       </c>
       <c r="B175" t="s" s="0">
-        <v>374</v>
+        <v>439</v>
       </c>
       <c r="C175" t="s" s="0">
         <v>330</v>
@@ -20542,13 +20542,13 @@
         <v>273</v>
       </c>
       <c r="B176" t="s" s="0">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="C176" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D176" t="s" s="0">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="177">
@@ -20562,7 +20562,7 @@
         <v>330</v>
       </c>
       <c r="D177" t="s" s="0">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="178">
@@ -20576,7 +20576,7 @@
         <v>330</v>
       </c>
       <c r="D178" t="s" s="0">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="179">
@@ -20584,7 +20584,7 @@
         <v>273</v>
       </c>
       <c r="B179" t="s" s="0">
-        <v>340</v>
+        <v>442</v>
       </c>
       <c r="C179" t="s" s="0">
         <v>330</v>
@@ -20598,13 +20598,13 @@
         <v>273</v>
       </c>
       <c r="B180" t="s" s="0">
-        <v>442</v>
+        <v>339</v>
       </c>
       <c r="C180" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D180" t="s" s="0">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="181">
@@ -20612,13 +20612,13 @@
         <v>291</v>
       </c>
       <c r="B181" t="s" s="0">
-        <v>381</v>
+        <v>333</v>
       </c>
       <c r="C181" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D181" t="s" s="0">
-        <v>13</v>
+        <v>334</v>
       </c>
     </row>
     <row r="182">
@@ -20626,7 +20626,7 @@
         <v>291</v>
       </c>
       <c r="B182" t="s" s="0">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C182" t="s" s="0">
         <v>330</v>
@@ -20640,13 +20640,13 @@
         <v>291</v>
       </c>
       <c r="B183" t="s" s="0">
-        <v>443</v>
+        <v>343</v>
       </c>
       <c r="C183" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D183" t="s" s="0">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="184">
@@ -20654,7 +20654,7 @@
         <v>291</v>
       </c>
       <c r="B184" t="s" s="0">
-        <v>345</v>
+        <v>407</v>
       </c>
       <c r="C184" t="s" s="0">
         <v>330</v>
@@ -20668,13 +20668,13 @@
         <v>291</v>
       </c>
       <c r="B185" t="s" s="0">
-        <v>444</v>
+        <v>370</v>
       </c>
       <c r="C185" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D185" t="s" s="0">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="186">
@@ -20682,13 +20682,13 @@
         <v>291</v>
       </c>
       <c r="B186" t="s" s="0">
-        <v>373</v>
+        <v>443</v>
       </c>
       <c r="C186" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D186" t="s" s="0">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="187">
@@ -20696,13 +20696,13 @@
         <v>291</v>
       </c>
       <c r="B187" t="s" s="0">
-        <v>333</v>
+        <v>444</v>
       </c>
       <c r="C187" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D187" t="s" s="0">
-        <v>334</v>
+        <v>40</v>
       </c>
     </row>
     <row r="188">
@@ -20710,7 +20710,7 @@
         <v>297</v>
       </c>
       <c r="B188" t="s" s="0">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C188" t="s" s="0">
         <v>330</v>
@@ -20752,13 +20752,13 @@
         <v>303</v>
       </c>
       <c r="B191" t="s" s="0">
-        <v>442</v>
+        <v>380</v>
       </c>
       <c r="C191" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D191" t="s" s="0">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="192">
@@ -20766,13 +20766,13 @@
         <v>303</v>
       </c>
       <c r="B192" t="s" s="0">
-        <v>389</v>
+        <v>447</v>
       </c>
       <c r="C192" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D192" t="s" s="0">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="193">
@@ -20780,13 +20780,13 @@
         <v>303</v>
       </c>
       <c r="B193" t="s" s="0">
-        <v>381</v>
+        <v>333</v>
       </c>
       <c r="C193" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D193" t="s" s="0">
-        <v>13</v>
+        <v>334</v>
       </c>
     </row>
     <row r="194">
@@ -20794,7 +20794,7 @@
         <v>303</v>
       </c>
       <c r="B194" t="s" s="0">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="C194" t="s" s="0">
         <v>330</v>
@@ -20808,13 +20808,13 @@
         <v>303</v>
       </c>
       <c r="B195" t="s" s="0">
-        <v>448</v>
+        <v>371</v>
       </c>
       <c r="C195" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D195" t="s" s="0">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="196">
@@ -20822,13 +20822,13 @@
         <v>303</v>
       </c>
       <c r="B196" t="s" s="0">
-        <v>375</v>
+        <v>448</v>
       </c>
       <c r="C196" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D196" t="s" s="0">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="197">
@@ -20836,7 +20836,7 @@
         <v>303</v>
       </c>
       <c r="B197" t="s" s="0">
-        <v>449</v>
+        <v>369</v>
       </c>
       <c r="C197" t="s" s="0">
         <v>330</v>
@@ -20850,7 +20850,7 @@
         <v>303</v>
       </c>
       <c r="B198" t="s" s="0">
-        <v>450</v>
+        <v>414</v>
       </c>
       <c r="C198" t="s" s="0">
         <v>330</v>
@@ -20864,13 +20864,13 @@
         <v>303</v>
       </c>
       <c r="B199" t="s" s="0">
-        <v>329</v>
+        <v>449</v>
       </c>
       <c r="C199" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D199" t="s" s="0">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="200">
@@ -20878,13 +20878,13 @@
         <v>303</v>
       </c>
       <c r="B200" t="s" s="0">
-        <v>451</v>
+        <v>331</v>
       </c>
       <c r="C200" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D200" t="s" s="0">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="201">
@@ -20892,13 +20892,13 @@
         <v>303</v>
       </c>
       <c r="B201" t="s" s="0">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C201" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D201" t="s" s="0">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="202">
@@ -20906,13 +20906,13 @@
         <v>303</v>
       </c>
       <c r="B202" t="s" s="0">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C202" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D202" t="s" s="0">
-        <v>48</v>
+        <v>13</v>
       </c>
     </row>
     <row r="203">
@@ -20920,7 +20920,7 @@
         <v>303</v>
       </c>
       <c r="B203" t="s" s="0">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C203" t="s" s="0">
         <v>330</v>
@@ -20934,13 +20934,13 @@
         <v>303</v>
       </c>
       <c r="B204" t="s" s="0">
-        <v>333</v>
+        <v>407</v>
       </c>
       <c r="C204" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D204" t="s" s="0">
-        <v>334</v>
+        <v>13</v>
       </c>
     </row>
     <row r="205">
@@ -20948,13 +20948,13 @@
         <v>303</v>
       </c>
       <c r="B205" t="s" s="0">
-        <v>413</v>
+        <v>341</v>
       </c>
       <c r="C205" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D205" t="s" s="0">
-        <v>13</v>
+        <v>48</v>
       </c>
     </row>
     <row r="206">
@@ -20962,7 +20962,7 @@
         <v>303</v>
       </c>
       <c r="B206" t="s" s="0">
-        <v>374</v>
+        <v>452</v>
       </c>
       <c r="C206" t="s" s="0">
         <v>330</v>
@@ -20976,13 +20976,13 @@
         <v>303</v>
       </c>
       <c r="B207" t="s" s="0">
-        <v>340</v>
+        <v>453</v>
       </c>
       <c r="C207" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D207" t="s" s="0">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="208">
@@ -21004,13 +21004,13 @@
         <v>319</v>
       </c>
       <c r="B209" t="s" s="0">
-        <v>389</v>
+        <v>331</v>
       </c>
       <c r="C209" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D209" t="s" s="0">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="210">
@@ -21018,13 +21018,13 @@
         <v>319</v>
       </c>
       <c r="B210" t="s" s="0">
-        <v>333</v>
+        <v>380</v>
       </c>
       <c r="C210" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D210" t="s" s="0">
-        <v>334</v>
+        <v>13</v>
       </c>
     </row>
     <row r="211">
@@ -21032,13 +21032,13 @@
         <v>319</v>
       </c>
       <c r="B211" t="s" s="0">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C211" t="s" s="0">
         <v>330</v>
       </c>
       <c r="D211" t="s" s="0">
-        <v>17</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -21491,7 +21491,7 @@
         <v>227</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>461</v>
@@ -21508,7 +21508,7 @@
         <v>227</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>388</v>
+        <v>416</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>461</v>
@@ -21525,7 +21525,7 @@
         <v>227</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>461</v>
@@ -21542,7 +21542,7 @@
         <v>227</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>461</v>
@@ -21559,7 +21559,7 @@
         <v>227</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>415</v>
+        <v>398</v>
       </c>
       <c r="E6" t="s" s="0">
         <v>461</v>
@@ -21576,7 +21576,7 @@
         <v>227</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E7" t="s" s="0">
         <v>461</v>
@@ -21593,7 +21593,7 @@
         <v>227</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>406</v>
+        <v>383</v>
       </c>
       <c r="E8" t="s" s="0">
         <v>461</v>
@@ -21610,7 +21610,7 @@
         <v>227</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>388</v>
+        <v>416</v>
       </c>
       <c r="E9" t="s" s="0">
         <v>461</v>
@@ -21627,7 +21627,7 @@
         <v>227</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="E10" t="s" s="0">
         <v>461</v>
@@ -21644,7 +21644,7 @@
         <v>227</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="E11" t="s" s="0">
         <v>461</v>
@@ -21661,7 +21661,7 @@
         <v>227</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>407</v>
+        <v>382</v>
       </c>
       <c r="E12" t="s" s="0">
         <v>461</v>
@@ -21678,7 +21678,7 @@
         <v>227</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>414</v>
+        <v>381</v>
       </c>
       <c r="E13" t="s" s="0">
         <v>461</v>
@@ -21695,7 +21695,7 @@
         <v>227</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="E14" t="s" s="0">
         <v>461</v>
@@ -21712,7 +21712,7 @@
         <v>227</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="E15" t="s" s="0">
         <v>461</v>
@@ -21729,7 +21729,7 @@
         <v>227</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="E16" t="s" s="0">
         <v>461</v>
@@ -21746,7 +21746,7 @@
         <v>227</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E17" t="s" s="0">
         <v>461</v>
@@ -21763,7 +21763,7 @@
         <v>227</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="E18" t="s" s="0">
         <v>461</v>
@@ -21780,7 +21780,7 @@
         <v>227</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E19" t="s" s="0">
         <v>461</v>
@@ -21797,7 +21797,7 @@
         <v>227</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="E20" t="s" s="0">
         <v>461</v>
@@ -21814,7 +21814,7 @@
         <v>227</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="E21" t="s" s="0">
         <v>461</v>
@@ -21831,7 +21831,7 @@
         <v>227</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="E22" t="s" s="0">
         <v>461</v>
@@ -21848,7 +21848,7 @@
         <v>227</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="E23" t="s" s="0">
         <v>461</v>
@@ -21865,7 +21865,7 @@
         <v>227</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E24" t="s" s="0">
         <v>461</v>
@@ -21882,7 +21882,7 @@
         <v>227</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>387</v>
+        <v>410</v>
       </c>
       <c r="E25" t="s" s="0">
         <v>461</v>
@@ -21899,7 +21899,7 @@
         <v>227</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="E26" t="s" s="0">
         <v>461</v>
@@ -21916,7 +21916,7 @@
         <v>227</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="E27" t="s" s="0">
         <v>461</v>
@@ -21933,7 +21933,7 @@
         <v>227</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="E28" t="s" s="0">
         <v>461</v>
@@ -21950,7 +21950,7 @@
         <v>227</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E29" t="s" s="0">
         <v>461</v>
@@ -21967,7 +21967,7 @@
         <v>227</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="E30" t="s" s="0">
         <v>461</v>
@@ -21984,7 +21984,7 @@
         <v>227</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="E31" t="s" s="0">
         <v>461</v>
@@ -22001,7 +22001,7 @@
         <v>227</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>406</v>
+        <v>383</v>
       </c>
       <c r="E32" t="s" s="0">
         <v>461</v>
@@ -22018,7 +22018,7 @@
         <v>227</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="E33" t="s" s="0">
         <v>461</v>
@@ -22035,7 +22035,7 @@
         <v>227</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>414</v>
+        <v>381</v>
       </c>
       <c r="E34" t="s" s="0">
         <v>461</v>
@@ -22052,7 +22052,7 @@
         <v>227</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="E35" t="s" s="0">
         <v>461</v>
@@ -22069,7 +22069,7 @@
         <v>227</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="E36" t="s" s="0">
         <v>461</v>
@@ -22086,7 +22086,7 @@
         <v>227</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E37" t="s" s="0">
         <v>461</v>
@@ -22120,7 +22120,7 @@
         <v>227</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="E39" t="s" s="0">
         <v>461</v>
@@ -22137,7 +22137,7 @@
         <v>227</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E40" t="s" s="0">
         <v>461</v>
@@ -22154,7 +22154,7 @@
         <v>227</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="E41" t="s" s="0">
         <v>461</v>
@@ -22171,7 +22171,7 @@
         <v>227</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="E42" t="s" s="0">
         <v>461</v>
@@ -22188,7 +22188,7 @@
         <v>227</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="E43" t="s" s="0">
         <v>461</v>
@@ -22205,7 +22205,7 @@
         <v>227</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E44" t="s" s="0">
         <v>461</v>
@@ -22222,7 +22222,7 @@
         <v>227</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E45" t="s" s="0">
         <v>461</v>
@@ -22239,7 +22239,7 @@
         <v>227</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="E46" t="s" s="0">
         <v>461</v>
@@ -22256,7 +22256,7 @@
         <v>227</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E47" t="s" s="0">
         <v>461</v>
@@ -22290,7 +22290,7 @@
         <v>227</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="E49" t="s" s="0">
         <v>461</v>
@@ -22307,7 +22307,7 @@
         <v>227</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="E50" t="s" s="0">
         <v>461</v>
@@ -22324,7 +22324,7 @@
         <v>227</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>415</v>
+        <v>398</v>
       </c>
       <c r="E51" t="s" s="0">
         <v>461</v>
@@ -22341,7 +22341,7 @@
         <v>227</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E52" t="s" s="0">
         <v>461</v>
@@ -22358,7 +22358,7 @@
         <v>227</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E53" t="s" s="0">
         <v>461</v>
@@ -22375,7 +22375,7 @@
         <v>227</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E54" t="s" s="0">
         <v>461</v>
@@ -22392,7 +22392,7 @@
         <v>227</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E55" t="s" s="0">
         <v>461</v>
@@ -22409,7 +22409,7 @@
         <v>227</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="E56" t="s" s="0">
         <v>461</v>
@@ -22426,7 +22426,7 @@
         <v>227</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E57" t="s" s="0">
         <v>461</v>
@@ -22443,7 +22443,7 @@
         <v>227</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="E58" t="s" s="0">
         <v>461</v>
@@ -22460,7 +22460,7 @@
         <v>227</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="E59" t="s" s="0">
         <v>461</v>
@@ -22477,7 +22477,7 @@
         <v>227</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="E60" t="s" s="0">
         <v>461</v>
@@ -22494,7 +22494,7 @@
         <v>227</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="E61" t="s" s="0">
         <v>461</v>
@@ -22511,7 +22511,7 @@
         <v>227</v>
       </c>
       <c r="D62" t="s" s="0">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="E62" t="s" s="0">
         <v>461</v>
@@ -22528,7 +22528,7 @@
         <v>227</v>
       </c>
       <c r="D63" t="s" s="0">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="E63" t="s" s="0">
         <v>461</v>
@@ -22545,7 +22545,7 @@
         <v>227</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>381</v>
+        <v>407</v>
       </c>
       <c r="E64" t="s" s="0">
         <v>461</v>
@@ -22562,7 +22562,7 @@
         <v>227</v>
       </c>
       <c r="D65" t="s" s="0">
-        <v>381</v>
+        <v>407</v>
       </c>
       <c r="E65" t="s" s="0">
         <v>461</v>
@@ -22579,7 +22579,7 @@
         <v>227</v>
       </c>
       <c r="D66" t="s" s="0">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="E66" t="s" s="0">
         <v>461</v>
@@ -22596,7 +22596,7 @@
         <v>227</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="E67" t="s" s="0">
         <v>461</v>
@@ -22613,7 +22613,7 @@
         <v>227</v>
       </c>
       <c r="D68" t="s" s="0">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="E68" t="s" s="0">
         <v>461</v>
@@ -22630,7 +22630,7 @@
         <v>227</v>
       </c>
       <c r="D69" t="s" s="0">
-        <v>386</v>
+        <v>408</v>
       </c>
       <c r="E69" t="s" s="0">
         <v>461</v>
@@ -22647,7 +22647,7 @@
         <v>227</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E70" t="s" s="0">
         <v>461</v>
@@ -22664,7 +22664,7 @@
         <v>227</v>
       </c>
       <c r="D71" t="s" s="0">
-        <v>407</v>
+        <v>382</v>
       </c>
       <c r="E71" t="s" s="0">
         <v>461</v>
@@ -22681,7 +22681,7 @@
         <v>227</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="E72" t="s" s="0">
         <v>461</v>
@@ -22698,7 +22698,7 @@
         <v>227</v>
       </c>
       <c r="D73" t="s" s="0">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E73" t="s" s="0">
         <v>461</v>
@@ -22715,7 +22715,7 @@
         <v>227</v>
       </c>
       <c r="D74" t="s" s="0">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="E74" t="s" s="0">
         <v>461</v>
@@ -22732,7 +22732,7 @@
         <v>227</v>
       </c>
       <c r="D75" t="s" s="0">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E75" t="s" s="0">
         <v>461</v>
@@ -22749,7 +22749,7 @@
         <v>227</v>
       </c>
       <c r="D76" t="s" s="0">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="E76" t="s" s="0">
         <v>461</v>
@@ -22766,7 +22766,7 @@
         <v>227</v>
       </c>
       <c r="D77" t="s" s="0">
-        <v>381</v>
+        <v>407</v>
       </c>
       <c r="E77" t="s" s="0">
         <v>461</v>
@@ -22783,7 +22783,7 @@
         <v>227</v>
       </c>
       <c r="D78" t="s" s="0">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E78" t="s" s="0">
         <v>461</v>
@@ -22800,7 +22800,7 @@
         <v>227</v>
       </c>
       <c r="D79" t="s" s="0">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E79" t="s" s="0">
         <v>461</v>
@@ -22817,7 +22817,7 @@
         <v>227</v>
       </c>
       <c r="D80" t="s" s="0">
-        <v>407</v>
+        <v>382</v>
       </c>
       <c r="E80" t="s" s="0">
         <v>461</v>
@@ -22834,7 +22834,7 @@
         <v>227</v>
       </c>
       <c r="D81" t="s" s="0">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="E81" t="s" s="0">
         <v>461</v>
@@ -22851,7 +22851,7 @@
         <v>227</v>
       </c>
       <c r="D82" t="s" s="0">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="E82" t="s" s="0">
         <v>461</v>
@@ -22868,7 +22868,7 @@
         <v>227</v>
       </c>
       <c r="D83" t="s" s="0">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="E83" t="s" s="0">
         <v>461</v>
@@ -22902,7 +22902,7 @@
         <v>227</v>
       </c>
       <c r="D85" t="s" s="0">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="E85" t="s" s="0">
         <v>461</v>
@@ -22919,7 +22919,7 @@
         <v>227</v>
       </c>
       <c r="D86" t="s" s="0">
-        <v>381</v>
+        <v>407</v>
       </c>
       <c r="E86" t="s" s="0">
         <v>461</v>
@@ -22936,7 +22936,7 @@
         <v>227</v>
       </c>
       <c r="D87" t="s" s="0">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E87" t="s" s="0">
         <v>461</v>
@@ -22970,7 +22970,7 @@
         <v>227</v>
       </c>
       <c r="D89" t="s" s="0">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="E89" t="s" s="0">
         <v>461</v>
@@ -22987,7 +22987,7 @@
         <v>227</v>
       </c>
       <c r="D90" t="s" s="0">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="E90" t="s" s="0">
         <v>461</v>
@@ -23004,7 +23004,7 @@
         <v>227</v>
       </c>
       <c r="D91" t="s" s="0">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="E91" t="s" s="0">
         <v>461</v>
@@ -23021,7 +23021,7 @@
         <v>227</v>
       </c>
       <c r="D92" t="s" s="0">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="E92" t="s" s="0">
         <v>461</v>
@@ -23038,7 +23038,7 @@
         <v>227</v>
       </c>
       <c r="D93" t="s" s="0">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E93" t="s" s="0">
         <v>461</v>
@@ -23055,7 +23055,7 @@
         <v>227</v>
       </c>
       <c r="D94" t="s" s="0">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E94" t="s" s="0">
         <v>461</v>
@@ -23072,7 +23072,7 @@
         <v>227</v>
       </c>
       <c r="D95" t="s" s="0">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="E95" t="s" s="0">
         <v>461</v>
@@ -23089,7 +23089,7 @@
         <v>227</v>
       </c>
       <c r="D96" t="s" s="0">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="E96" t="s" s="0">
         <v>461</v>
@@ -23106,7 +23106,7 @@
         <v>227</v>
       </c>
       <c r="D97" t="s" s="0">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="E97" t="s" s="0">
         <v>461</v>
@@ -23123,7 +23123,7 @@
         <v>227</v>
       </c>
       <c r="D98" t="s" s="0">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="E98" t="s" s="0">
         <v>461</v>
@@ -23140,7 +23140,7 @@
         <v>227</v>
       </c>
       <c r="D99" t="s" s="0">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E99" t="s" s="0">
         <v>461</v>
@@ -23157,7 +23157,7 @@
         <v>227</v>
       </c>
       <c r="D100" t="s" s="0">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="E100" t="s" s="0">
         <v>461</v>
@@ -23174,7 +23174,7 @@
         <v>227</v>
       </c>
       <c r="D101" t="s" s="0">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="E101" t="s" s="0">
         <v>461</v>
@@ -23191,7 +23191,7 @@
         <v>227</v>
       </c>
       <c r="D102" t="s" s="0">
-        <v>415</v>
+        <v>398</v>
       </c>
       <c r="E102" t="s" s="0">
         <v>461</v>
@@ -23208,7 +23208,7 @@
         <v>227</v>
       </c>
       <c r="D103" t="s" s="0">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E103" t="s" s="0">
         <v>461</v>
@@ -23225,7 +23225,7 @@
         <v>227</v>
       </c>
       <c r="D104" t="s" s="0">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E104" t="s" s="0">
         <v>461</v>
@@ -23242,7 +23242,7 @@
         <v>227</v>
       </c>
       <c r="D105" t="s" s="0">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="E105" t="s" s="0">
         <v>461</v>
@@ -23259,7 +23259,7 @@
         <v>227</v>
       </c>
       <c r="D106" t="s" s="0">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E106" t="s" s="0">
         <v>461</v>
@@ -23276,7 +23276,7 @@
         <v>227</v>
       </c>
       <c r="D107" t="s" s="0">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="E107" t="s" s="0">
         <v>461</v>
@@ -23293,7 +23293,7 @@
         <v>227</v>
       </c>
       <c r="D108" t="s" s="0">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="E108" t="s" s="0">
         <v>461</v>
@@ -23310,7 +23310,7 @@
         <v>227</v>
       </c>
       <c r="D109" t="s" s="0">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E109" t="s" s="0">
         <v>461</v>
@@ -23327,7 +23327,7 @@
         <v>227</v>
       </c>
       <c r="D110" t="s" s="0">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="E110" t="s" s="0">
         <v>461</v>
@@ -23344,7 +23344,7 @@
         <v>227</v>
       </c>
       <c r="D111" t="s" s="0">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="E111" t="s" s="0">
         <v>461</v>
@@ -23361,7 +23361,7 @@
         <v>227</v>
       </c>
       <c r="D112" t="s" s="0">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E112" t="s" s="0">
         <v>461</v>
@@ -23378,7 +23378,7 @@
         <v>227</v>
       </c>
       <c r="D113" t="s" s="0">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="E113" t="s" s="0">
         <v>461</v>
@@ -23395,7 +23395,7 @@
         <v>227</v>
       </c>
       <c r="D114" t="s" s="0">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E114" t="s" s="0">
         <v>461</v>
@@ -23412,7 +23412,7 @@
         <v>227</v>
       </c>
       <c r="D115" t="s" s="0">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="E115" t="s" s="0">
         <v>461</v>
@@ -23429,7 +23429,7 @@
         <v>227</v>
       </c>
       <c r="D116" t="s" s="0">
-        <v>387</v>
+        <v>410</v>
       </c>
       <c r="E116" t="s" s="0">
         <v>461</v>
@@ -23446,7 +23446,7 @@
         <v>227</v>
       </c>
       <c r="D117" t="s" s="0">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E117" t="s" s="0">
         <v>461</v>
@@ -23463,7 +23463,7 @@
         <v>227</v>
       </c>
       <c r="D118" t="s" s="0">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="E118" t="s" s="0">
         <v>461</v>
@@ -23480,7 +23480,7 @@
         <v>227</v>
       </c>
       <c r="D119" t="s" s="0">
-        <v>414</v>
+        <v>381</v>
       </c>
       <c r="E119" t="s" s="0">
         <v>461</v>
@@ -23497,7 +23497,7 @@
         <v>227</v>
       </c>
       <c r="D120" t="s" s="0">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="E120" t="s" s="0">
         <v>461</v>
@@ -23514,7 +23514,7 @@
         <v>227</v>
       </c>
       <c r="D121" t="s" s="0">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="E121" t="s" s="0">
         <v>461</v>
@@ -23531,7 +23531,7 @@
         <v>227</v>
       </c>
       <c r="D122" t="s" s="0">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="E122" t="s" s="0">
         <v>461</v>
@@ -23548,7 +23548,7 @@
         <v>227</v>
       </c>
       <c r="D123" t="s" s="0">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="E123" t="s" s="0">
         <v>461</v>
@@ -23565,7 +23565,7 @@
         <v>227</v>
       </c>
       <c r="D124" t="s" s="0">
-        <v>388</v>
+        <v>416</v>
       </c>
       <c r="E124" t="s" s="0">
         <v>461</v>
@@ -23582,7 +23582,7 @@
         <v>227</v>
       </c>
       <c r="D125" t="s" s="0">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="E125" t="s" s="0">
         <v>461</v>
@@ -23599,7 +23599,7 @@
         <v>227</v>
       </c>
       <c r="D126" t="s" s="0">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="E126" t="s" s="0">
         <v>461</v>
@@ -23616,7 +23616,7 @@
         <v>227</v>
       </c>
       <c r="D127" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E127" t="s" s="0">
         <v>461</v>
@@ -23633,7 +23633,7 @@
         <v>227</v>
       </c>
       <c r="D128" t="s" s="0">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E128" t="s" s="0">
         <v>461</v>
@@ -23650,7 +23650,7 @@
         <v>227</v>
       </c>
       <c r="D129" t="s" s="0">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="E129" t="s" s="0">
         <v>461</v>
@@ -23667,7 +23667,7 @@
         <v>227</v>
       </c>
       <c r="D130" t="s" s="0">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="E130" t="s" s="0">
         <v>461</v>
@@ -23684,7 +23684,7 @@
         <v>227</v>
       </c>
       <c r="D131" t="s" s="0">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E131" t="s" s="0">
         <v>461</v>
@@ -23701,7 +23701,7 @@
         <v>227</v>
       </c>
       <c r="D132" t="s" s="0">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="E132" t="s" s="0">
         <v>461</v>
@@ -23718,7 +23718,7 @@
         <v>227</v>
       </c>
       <c r="D133" t="s" s="0">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="E133" t="s" s="0">
         <v>461</v>
@@ -23735,7 +23735,7 @@
         <v>227</v>
       </c>
       <c r="D134" t="s" s="0">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="E134" t="s" s="0">
         <v>461</v>
@@ -23752,7 +23752,7 @@
         <v>227</v>
       </c>
       <c r="D135" t="s" s="0">
-        <v>386</v>
+        <v>408</v>
       </c>
       <c r="E135" t="s" s="0">
         <v>461</v>
@@ -23769,7 +23769,7 @@
         <v>227</v>
       </c>
       <c r="D136" t="s" s="0">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E136" t="s" s="0">
         <v>461</v>
@@ -23786,7 +23786,7 @@
         <v>227</v>
       </c>
       <c r="D137" t="s" s="0">
-        <v>386</v>
+        <v>408</v>
       </c>
       <c r="E137" t="s" s="0">
         <v>461</v>
@@ -23803,7 +23803,7 @@
         <v>227</v>
       </c>
       <c r="D138" t="s" s="0">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="E138" t="s" s="0">
         <v>461</v>
@@ -23820,7 +23820,7 @@
         <v>227</v>
       </c>
       <c r="D139" t="s" s="0">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E139" t="s" s="0">
         <v>461</v>
@@ -23837,7 +23837,7 @@
         <v>227</v>
       </c>
       <c r="D140" t="s" s="0">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="E140" t="s" s="0">
         <v>461</v>
@@ -23854,7 +23854,7 @@
         <v>227</v>
       </c>
       <c r="D141" t="s" s="0">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="E141" t="s" s="0">
         <v>461</v>
@@ -23871,7 +23871,7 @@
         <v>227</v>
       </c>
       <c r="D142" t="s" s="0">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="E142" t="s" s="0">
         <v>461</v>
@@ -23888,7 +23888,7 @@
         <v>227</v>
       </c>
       <c r="D143" t="s" s="0">
-        <v>387</v>
+        <v>410</v>
       </c>
       <c r="E143" t="s" s="0">
         <v>461</v>
@@ -23905,7 +23905,7 @@
         <v>227</v>
       </c>
       <c r="D144" t="s" s="0">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E144" t="s" s="0">
         <v>461</v>
@@ -23922,7 +23922,7 @@
         <v>227</v>
       </c>
       <c r="D145" t="s" s="0">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="E145" t="s" s="0">
         <v>461</v>
@@ -23939,7 +23939,7 @@
         <v>227</v>
       </c>
       <c r="D146" t="s" s="0">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="E146" t="s" s="0">
         <v>461</v>
@@ -23956,7 +23956,7 @@
         <v>227</v>
       </c>
       <c r="D147" t="s" s="0">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="E147" t="s" s="0">
         <v>461</v>
@@ -23973,7 +23973,7 @@
         <v>227</v>
       </c>
       <c r="D148" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E148" t="s" s="0">
         <v>461</v>
@@ -23990,7 +23990,7 @@
         <v>227</v>
       </c>
       <c r="D149" t="s" s="0">
-        <v>414</v>
+        <v>381</v>
       </c>
       <c r="E149" t="s" s="0">
         <v>461</v>
@@ -24007,7 +24007,7 @@
         <v>227</v>
       </c>
       <c r="D150" t="s" s="0">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="E150" t="s" s="0">
         <v>461</v>
@@ -24024,7 +24024,7 @@
         <v>227</v>
       </c>
       <c r="D151" t="s" s="0">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="E151" t="s" s="0">
         <v>461</v>
@@ -24041,7 +24041,7 @@
         <v>227</v>
       </c>
       <c r="D152" t="s" s="0">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="E152" t="s" s="0">
         <v>461</v>
@@ -24058,7 +24058,7 @@
         <v>227</v>
       </c>
       <c r="D153" t="s" s="0">
-        <v>407</v>
+        <v>382</v>
       </c>
       <c r="E153" t="s" s="0">
         <v>461</v>
@@ -24075,7 +24075,7 @@
         <v>227</v>
       </c>
       <c r="D154" t="s" s="0">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="E154" t="s" s="0">
         <v>461</v>
@@ -24092,7 +24092,7 @@
         <v>227</v>
       </c>
       <c r="D155" t="s" s="0">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="E155" t="s" s="0">
         <v>461</v>
@@ -24109,7 +24109,7 @@
         <v>227</v>
       </c>
       <c r="D156" t="s" s="0">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E156" t="s" s="0">
         <v>461</v>
@@ -24126,7 +24126,7 @@
         <v>227</v>
       </c>
       <c r="D157" t="s" s="0">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="E157" t="s" s="0">
         <v>461</v>
@@ -24143,7 +24143,7 @@
         <v>227</v>
       </c>
       <c r="D158" t="s" s="0">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="E158" t="s" s="0">
         <v>461</v>
@@ -24160,7 +24160,7 @@
         <v>227</v>
       </c>
       <c r="D159" t="s" s="0">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="E159" t="s" s="0">
         <v>461</v>
@@ -24177,7 +24177,7 @@
         <v>227</v>
       </c>
       <c r="D160" t="s" s="0">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="E160" t="s" s="0">
         <v>461</v>
@@ -24194,7 +24194,7 @@
         <v>227</v>
       </c>
       <c r="D161" t="s" s="0">
-        <v>415</v>
+        <v>398</v>
       </c>
       <c r="E161" t="s" s="0">
         <v>461</v>
@@ -24211,7 +24211,7 @@
         <v>227</v>
       </c>
       <c r="D162" t="s" s="0">
-        <v>406</v>
+        <v>383</v>
       </c>
       <c r="E162" t="s" s="0">
         <v>461</v>
@@ -24228,7 +24228,7 @@
         <v>227</v>
       </c>
       <c r="D163" t="s" s="0">
-        <v>386</v>
+        <v>408</v>
       </c>
       <c r="E163" t="s" s="0">
         <v>461</v>
@@ -24245,7 +24245,7 @@
         <v>227</v>
       </c>
       <c r="D164" t="s" s="0">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="E164" t="s" s="0">
         <v>461</v>
@@ -24262,7 +24262,7 @@
         <v>227</v>
       </c>
       <c r="D165" t="s" s="0">
-        <v>406</v>
+        <v>383</v>
       </c>
       <c r="E165" t="s" s="0">
         <v>461</v>
@@ -24279,7 +24279,7 @@
         <v>227</v>
       </c>
       <c r="D166" t="s" s="0">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="E166" t="s" s="0">
         <v>461</v>
@@ -24296,7 +24296,7 @@
         <v>227</v>
       </c>
       <c r="D167" t="s" s="0">
-        <v>387</v>
+        <v>410</v>
       </c>
       <c r="E167" t="s" s="0">
         <v>461</v>
@@ -24313,7 +24313,7 @@
         <v>227</v>
       </c>
       <c r="D168" t="s" s="0">
-        <v>388</v>
+        <v>416</v>
       </c>
       <c r="E168" t="s" s="0">
         <v>461</v>
@@ -24330,7 +24330,7 @@
         <v>227</v>
       </c>
       <c r="D169" t="s" s="0">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="E169" t="s" s="0">
         <v>461</v>
